--- a/Config/ExcelTools/AudioConfig.xlsx
+++ b/Config/ExcelTools/AudioConfig.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9564"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="AudioConfig" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1111,13 +1109,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="7.37962962962963" customWidth="1"/>
-    <col min="2" max="2" width="26.3518518518519" customWidth="1"/>
-    <col min="3" max="3" width="43.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="12.2592592592593" customWidth="1"/>
-    <col min="5" max="5" width="17.537037037037" customWidth="1"/>
+    <col min="1" max="1" width="7.38333333333333" customWidth="1"/>
+    <col min="2" max="2" width="26.35" customWidth="1"/>
+    <col min="3" max="3" width="43.1416666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.2583333333333" customWidth="1"/>
+    <col min="5" max="5" width="17.5333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1387,38 +1385,4 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>